--- a/Госпаблики ВК.xlsx
+++ b/Госпаблики ВК.xlsx
@@ -262,6 +262,254 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <date1904 val="0"/>
+  <lang val="en-US"/>
+  <roundedCorners val="0"/>
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr anchorCtr="false" rot="0" spcFirstLastPara="false"/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="false" baseline="0" i="false" kern="0" spc="0"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="false" baseline="0" i="false" kern="0" spc="0" sz="1400">
+                <a:solidFill>
+                  <a:srgbClr val="595959"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>В среднем постов</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" altLang="en-US"/>
+          </a:p>
+        </rich>
+      </tx>
+      <overlay val="0"/>
+      <spPr/>
+      <txPr>
+        <a:bodyPr anchorCtr="false" rot="0" spcFirstLastPara="false"/>
+        <a:p/>
+      </txPr>
+    </title>
+    <view3D>
+      <rotX val="20"/>
+      <rotY val="15"/>
+      <rAngAx val="0"/>
+      <perspective val="30"/>
+    </view3D>
+    <floor>
+      <thickness val="0"/>
+    </floor>
+    <sideWall>
+      <thickness val="0"/>
+    </sideWall>
+    <backWall>
+      <thickness val="0"/>
+    </backWall>
+    <plotArea>
+      <line3DChart>
+        <grouping val="standard"/>
+        <varyColors val="0"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f/>
+            </strRef>
+          </tx>
+          <dLbls>
+            <showLegendKey val="0"/>
+            <showVal val="0"/>
+            <showCatName val="0"/>
+            <showSerName val="0"/>
+            <showPercent val="0"/>
+            <showBubbleSize val="0"/>
+            <showLeaderLines val="0"/>
+          </dLbls>
+          <invertIfNegative val="0"/>
+          <cat>
+            <strRef>
+              <f>'Динамика'!$A$1:$A$15</f>
+            </strRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'Динамика'!$B$1:$B$15</f>
+            </numRef>
+          </val>
+          <smooth val="0"/>
+        </ser>
+        <dLbls>
+          <showLegendKey val="0"/>
+          <showVal val="0"/>
+          <showCatName val="0"/>
+          <showSerName val="0"/>
+          <showPercent val="0"/>
+          <showBubbleSize val="0"/>
+          <showLeaderLines val="0"/>
+        </dLbls>
+        <axId val="100000000"/>
+        <axId val="100000001"/>
+      </line3DChart>
+      <catAx>
+        <axId val="100000000"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <delete val="0"/>
+        <axPos val="b"/>
+        <numFmt formatCode="General" sourceLinked="false"/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <tickLblPos val="nextTo"/>
+        <spPr>
+          <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </spPr>
+        <txPr>
+          <a:bodyPr anchor="ctr" anchorCtr="true" rot="-60000000" spcFirstLastPara="true" vert="horz" vertOverflow="ellipsis" wrap="square"/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="false" baseline="0" i="false" kern="1200" spc="0" strike="noStrike" sz="900" u="none">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="15000"/>
+                    <a:lumOff val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </txPr>
+        <crossAx val="100000001"/>
+        <crosses val="autoZero"/>
+        <auto val="1"/>
+        <lblAlgn val="ctr"/>
+        <lblOffset val="100"/>
+        <noMultiLvlLbl val="0"/>
+      </catAx>
+      <valAx>
+        <axId val="100000001"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <delete val="0"/>
+        <axPos val="l"/>
+        <numFmt formatCode="General" sourceLinked="false"/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <tickLblPos val="nextTo"/>
+        <spPr>
+          <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </spPr>
+        <txPr>
+          <a:bodyPr anchor="ctr" anchorCtr="true" rot="-60000000" spcFirstLastPara="true" vert="horz" vertOverflow="ellipsis" wrap="square"/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="false" baseline="0" i="false" kern="1200" spc="0" strike="noStrike" sz="900" u="none">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="15000"/>
+                    <a:lumOff val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </txPr>
+        <crossAx val="100000000"/>
+        <crosses val="autoZero"/>
+        <crossBetween val="between"/>
+      </valAx>
+    </plotArea>
+    <legend>
+      <legendPos val="b"/>
+      <overlay val="0"/>
+    </legend>
+    <plotVisOnly val="0"/>
+    <dispBlanksAs val="gap"/>
+    <showDLblsOverMax val="0"/>
+  </chart>
+  <spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </a:ln>
+  </spPr>
+  <printSettings>
+    <pageMargins b="0.75" footer="0.3" header="0.3" l="0.7" r="0.7" t="0.7"/>
+  </printSettings>
+</chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 2" descr=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData fLocksWithSheet="false" fPrintsWithSheet="true"/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" saveData="false" refreshOnLoad="true" backgroundQuery="false" createdVersion="3" refreshedVersion="8" minRefreshableVersion="3">
   <cacheSource type="worksheet">
@@ -488,7 +736,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="2" dataCaption="Values" showError="false" updatedVersion="8" minRefreshableVersion="3" showDrill="true" useAutoFormatting="false" pageOverThenDown="false" rowGrandTotals="true" colGrandTotals="true" mergeItem="false" createdVersion="3" compactData="false">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Свод" cacheId="2" dataCaption="Values" showError="false" updatedVersion="8" minRefreshableVersion="3" showDrill="true" useAutoFormatting="false" pageOverThenDown="false" rowGrandTotals="true" colGrandTotals="true" mergeItem="false" createdVersion="3" compactData="false">
   <location ref="A15:AQ30" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="43">
     <pivotField axis="axisPage" showAll="false">
@@ -516,6 +764,7 @@
     <pivotField showAll="false"/>
     <pivotField showAll="false"/>
     <pivotField showAll="false"/>
+    <pivotField dataField="true" showAll="false"/>
     <pivotField showAll="false"/>
     <pivotField showAll="false"/>
     <pivotField showAll="false"/>
@@ -523,6 +772,7 @@
     <pivotField showAll="false"/>
     <pivotField showAll="false"/>
     <pivotField showAll="false"/>
+    <pivotField dataField="true" showAll="false"/>
     <pivotField showAll="false"/>
     <pivotField showAll="false"/>
     <pivotField showAll="false"/>
@@ -530,6 +780,7 @@
     <pivotField showAll="false"/>
     <pivotField showAll="false"/>
     <pivotField showAll="false"/>
+    <pivotField dataField="true" showAll="false"/>
     <pivotField showAll="false"/>
     <pivotField showAll="false"/>
     <pivotField showAll="false"/>
@@ -537,10 +788,7 @@
     <pivotField showAll="false"/>
     <pivotField showAll="false"/>
     <pivotField showAll="false"/>
-    <pivotField showAll="false"/>
-    <pivotField showAll="false"/>
-    <pivotField showAll="false"/>
-    <pivotField showAll="false"/>
+    <pivotField dataField="true" showAll="false"/>
     <pivotField showAll="false"/>
   </pivotFields>
   <rowFields count="1">
@@ -552,14 +800,21 @@
       <x/>
     </i>
   </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
   <colItems count="1">
     <i/>
   </colItems>
   <pageFields count="1">
     <pageField fld="0"/>
   </pageFields>
-  <dataFields count="1">
+  <dataFields count="5">
     <dataField name="Постов в среднем" fld="9" subtotal="sum"/>
+    <dataField name="Лайков в среднем" fld="17" subtotal="sum"/>
+    <dataField name="Репостов в среднем" fld="33" subtotal="sum"/>
+    <dataField name="Комментариев в среднем" fld="25" subtotal="sum"/>
+    <dataField name="Просмотров в среднем" fld="41" subtotal="sum"/>
   </dataFields>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="true" showColHeaders="true" showLastColumn="true"/>
 </pivotTableDefinition>
@@ -2358,7 +2613,7 @@
         <v>0</v>
       </c>
       <c r="AJ21" s="1">
-        <v>947</v>
+        <v>956</v>
       </c>
       <c r="AK21" s="1">
         <v>0</v>
@@ -2373,13 +2628,13 @@
         <v>0</v>
       </c>
       <c r="AO21" s="1">
-        <v>947</v>
+        <v>956</v>
       </c>
       <c r="AP21" s="1">
-        <v>236.75</v>
+        <v>239</v>
       </c>
       <c r="AQ21" s="1">
-        <v>947</v>
+        <v>956</v>
       </c>
     </row>
     <row r="22" ht="30" customHeight="true">
@@ -3013,7 +3268,7 @@
         <v>1</v>
       </c>
       <c r="AJ26" s="1">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="AK26" s="1">
         <v>0</v>
@@ -3028,13 +3283,13 @@
         <v>0</v>
       </c>
       <c r="AO26" s="1">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="AP26" s="1">
-        <v>26.75</v>
+        <v>27.5</v>
       </c>
       <c r="AQ26" s="1">
-        <v>107</v>
+        <v>110</v>
       </c>
     </row>
     <row r="27" ht="30" customHeight="true">
@@ -11507,7 +11762,7 @@
         <v>45</v>
       </c>
       <c r="D21" s="1">
-        <v>947</v>
+        <v>956</v>
       </c>
       <c r="E21" s="1">
         <v>0</v>
@@ -11522,13 +11777,13 @@
         <v>0</v>
       </c>
       <c r="I21" s="1">
-        <v>947</v>
+        <v>956</v>
       </c>
       <c r="J21" s="1">
-        <v>236.75</v>
+        <v>239</v>
       </c>
       <c r="K21" s="1">
-        <v>947</v>
+        <v>956</v>
       </c>
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
@@ -11842,7 +12097,7 @@
         <v>45</v>
       </c>
       <c r="D26" s="1">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="E26" s="1">
         <v>0</v>
@@ -11857,13 +12112,13 @@
         <v>0</v>
       </c>
       <c r="I26" s="1">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="J26" s="1">
-        <v>26.75</v>
+        <v>27.5</v>
       </c>
       <c r="K26" s="1">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="L26" s="1"/>
       <c r="M26" s="1"/>
@@ -12172,11 +12427,12 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetData/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Госпаблики ВК.xlsx
+++ b/Госпаблики ВК.xlsx
@@ -282,7 +282,7 @@
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
               </a:rPr>
-              <a:t>В среднем постов</a:t>
+              <a:t>Постов в среднем за 5 месяцев</a:t>
             </a:r>
             <a:endParaRPr lang="en-US" altLang="en-US"/>
           </a:p>
@@ -296,10 +296,10 @@
       </txPr>
     </title>
     <view3D>
-      <rotX val="20"/>
-      <rotY val="15"/>
+      <rotX val="0"/>
+      <rotY val="0"/>
       <rAngAx val="0"/>
-      <perspective val="30"/>
+      <perspective val="0"/>
     </view3D>
     <floor>
       <thickness val="0"/>
@@ -311,7 +311,7 @@
       <thickness val="0"/>
     </backWall>
     <plotArea>
-      <line3DChart>
+      <lineChart>
         <grouping val="standard"/>
         <varyColors val="0"/>
         <ser>
@@ -322,6 +322,13 @@
               <f/>
             </strRef>
           </tx>
+          <spPr>
+            <a:ln cap="rnd" w="25400">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:ln>
+          </spPr>
           <dLbls>
             <showLegendKey val="0"/>
             <showVal val="0"/>
@@ -331,15 +338,28 @@
             <showBubbleSize val="0"/>
             <showLeaderLines val="0"/>
           </dLbls>
+          <marker>
+            <size val="5"/>
+            <spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9252">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+            </spPr>
+          </marker>
           <invertIfNegative val="0"/>
           <cat>
             <strRef>
-              <f>'Динамика'!$A$1:$A$15</f>
+              <f>'Динамика'!$A$15:$A$20</f>
             </strRef>
           </cat>
           <val>
             <numRef>
-              <f>'Динамика'!$B$1:$B$15</f>
+              <f>'Динамика'!$B$15:$B$20</f>
             </numRef>
           </val>
           <smooth val="0"/>
@@ -355,7 +375,939 @@
         </dLbls>
         <axId val="100000000"/>
         <axId val="100000001"/>
-      </line3DChart>
+      </lineChart>
+      <catAx>
+        <axId val="100000000"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <delete val="0"/>
+        <axPos val="b"/>
+        <numFmt formatCode="General" sourceLinked="false"/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <tickLblPos val="nextTo"/>
+        <spPr>
+          <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </spPr>
+        <txPr>
+          <a:bodyPr anchor="ctr" anchorCtr="true" rot="-60000000" spcFirstLastPara="true" vert="horz" vertOverflow="ellipsis" wrap="square"/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="false" baseline="0" i="false" kern="1200" spc="0" strike="noStrike" sz="900" u="none">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="15000"/>
+                    <a:lumOff val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </txPr>
+        <crossAx val="100000001"/>
+        <crosses val="autoZero"/>
+        <auto val="1"/>
+        <lblAlgn val="ctr"/>
+        <lblOffset val="100"/>
+        <noMultiLvlLbl val="0"/>
+      </catAx>
+      <valAx>
+        <axId val="100000001"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <delete val="0"/>
+        <axPos val="l"/>
+        <numFmt formatCode="General" sourceLinked="false"/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <tickLblPos val="nextTo"/>
+        <spPr>
+          <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </spPr>
+        <txPr>
+          <a:bodyPr anchor="ctr" anchorCtr="true" rot="-60000000" spcFirstLastPara="true" vert="horz" vertOverflow="ellipsis" wrap="square"/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="false" baseline="0" i="false" kern="1200" spc="0" strike="noStrike" sz="900" u="none">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="15000"/>
+                    <a:lumOff val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </txPr>
+        <crossAx val="100000000"/>
+        <crosses val="autoZero"/>
+        <crossBetween val="between"/>
+      </valAx>
+    </plotArea>
+    <legend>
+      <legendPos val="b"/>
+      <overlay val="0"/>
+    </legend>
+    <plotVisOnly val="0"/>
+    <dispBlanksAs val="gap"/>
+    <showDLblsOverMax val="0"/>
+  </chart>
+  <spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </a:ln>
+  </spPr>
+  <printSettings>
+    <pageMargins b="0.75" footer="0.3" header="0.3" l="0.7" r="0.7" t="0.7"/>
+  </printSettings>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <date1904 val="0"/>
+  <lang val="en-US"/>
+  <roundedCorners val="0"/>
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr anchorCtr="false" rot="0" spcFirstLastPara="false"/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="false" baseline="0" i="false" kern="0" spc="0"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="false" baseline="0" i="false" kern="0" spc="0" sz="1400">
+                <a:solidFill>
+                  <a:srgbClr val="595959"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Лайков в среднем за 5 месяцев</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" altLang="en-US"/>
+          </a:p>
+        </rich>
+      </tx>
+      <overlay val="0"/>
+      <spPr/>
+      <txPr>
+        <a:bodyPr anchorCtr="false" rot="0" spcFirstLastPara="false"/>
+        <a:p/>
+      </txPr>
+    </title>
+    <view3D>
+      <rotX val="0"/>
+      <rotY val="0"/>
+      <rAngAx val="0"/>
+      <perspective val="0"/>
+    </view3D>
+    <floor>
+      <thickness val="0"/>
+    </floor>
+    <sideWall>
+      <thickness val="0"/>
+    </sideWall>
+    <backWall>
+      <thickness val="0"/>
+    </backWall>
+    <plotArea>
+      <lineChart>
+        <grouping val="standard"/>
+        <varyColors val="0"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f/>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln cap="rnd" w="25400">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:ln>
+          </spPr>
+          <dLbls>
+            <showLegendKey val="0"/>
+            <showVal val="0"/>
+            <showCatName val="0"/>
+            <showSerName val="0"/>
+            <showPercent val="0"/>
+            <showBubbleSize val="0"/>
+            <showLeaderLines val="0"/>
+          </dLbls>
+          <marker>
+            <size val="5"/>
+            <spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9252">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+            </spPr>
+          </marker>
+          <invertIfNegative val="0"/>
+          <cat>
+            <strRef>
+              <f>'Динамика'!$A$15:$A$20</f>
+            </strRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'Динамика'!$C$15:$C$20</f>
+            </numRef>
+          </val>
+          <smooth val="0"/>
+        </ser>
+        <dLbls>
+          <showLegendKey val="0"/>
+          <showVal val="0"/>
+          <showCatName val="0"/>
+          <showSerName val="0"/>
+          <showPercent val="0"/>
+          <showBubbleSize val="0"/>
+          <showLeaderLines val="0"/>
+        </dLbls>
+        <axId val="100000000"/>
+        <axId val="100000001"/>
+      </lineChart>
+      <catAx>
+        <axId val="100000000"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <delete val="0"/>
+        <axPos val="b"/>
+        <numFmt formatCode="General" sourceLinked="false"/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <tickLblPos val="nextTo"/>
+        <spPr>
+          <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </spPr>
+        <txPr>
+          <a:bodyPr anchor="ctr" anchorCtr="true" rot="-60000000" spcFirstLastPara="true" vert="horz" vertOverflow="ellipsis" wrap="square"/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="false" baseline="0" i="false" kern="1200" spc="0" strike="noStrike" sz="900" u="none">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="15000"/>
+                    <a:lumOff val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </txPr>
+        <crossAx val="100000001"/>
+        <crosses val="autoZero"/>
+        <auto val="1"/>
+        <lblAlgn val="ctr"/>
+        <lblOffset val="100"/>
+        <noMultiLvlLbl val="0"/>
+      </catAx>
+      <valAx>
+        <axId val="100000001"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <delete val="0"/>
+        <axPos val="l"/>
+        <numFmt formatCode="General" sourceLinked="false"/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <tickLblPos val="nextTo"/>
+        <spPr>
+          <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </spPr>
+        <txPr>
+          <a:bodyPr anchor="ctr" anchorCtr="true" rot="-60000000" spcFirstLastPara="true" vert="horz" vertOverflow="ellipsis" wrap="square"/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="false" baseline="0" i="false" kern="1200" spc="0" strike="noStrike" sz="900" u="none">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="15000"/>
+                    <a:lumOff val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </txPr>
+        <crossAx val="100000000"/>
+        <crosses val="autoZero"/>
+        <crossBetween val="between"/>
+      </valAx>
+    </plotArea>
+    <legend>
+      <legendPos val="b"/>
+      <overlay val="0"/>
+    </legend>
+    <plotVisOnly val="0"/>
+    <dispBlanksAs val="gap"/>
+    <showDLblsOverMax val="0"/>
+  </chart>
+  <spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </a:ln>
+  </spPr>
+  <printSettings>
+    <pageMargins b="0.75" footer="0.3" header="0.3" l="0.7" r="0.7" t="0.7"/>
+  </printSettings>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <date1904 val="0"/>
+  <lang val="en-US"/>
+  <roundedCorners val="0"/>
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr anchorCtr="false" rot="0" spcFirstLastPara="false"/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="false" baseline="0" i="false" kern="0" spc="0"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="false" baseline="0" i="false" kern="0" spc="0" sz="1400">
+                <a:solidFill>
+                  <a:srgbClr val="595959"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Репостов в среднем за 5 месяцев</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" altLang="en-US"/>
+          </a:p>
+        </rich>
+      </tx>
+      <overlay val="0"/>
+      <spPr/>
+      <txPr>
+        <a:bodyPr anchorCtr="false" rot="0" spcFirstLastPara="false"/>
+        <a:p/>
+      </txPr>
+    </title>
+    <view3D>
+      <rotX val="0"/>
+      <rotY val="0"/>
+      <rAngAx val="0"/>
+      <perspective val="0"/>
+    </view3D>
+    <floor>
+      <thickness val="0"/>
+    </floor>
+    <sideWall>
+      <thickness val="0"/>
+    </sideWall>
+    <backWall>
+      <thickness val="0"/>
+    </backWall>
+    <plotArea>
+      <lineChart>
+        <grouping val="standard"/>
+        <varyColors val="0"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f/>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln cap="rnd" w="25400">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:ln>
+          </spPr>
+          <dLbls>
+            <showLegendKey val="0"/>
+            <showVal val="0"/>
+            <showCatName val="0"/>
+            <showSerName val="0"/>
+            <showPercent val="0"/>
+            <showBubbleSize val="0"/>
+            <showLeaderLines val="0"/>
+          </dLbls>
+          <marker>
+            <size val="5"/>
+            <spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9252">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+            </spPr>
+          </marker>
+          <invertIfNegative val="0"/>
+          <cat>
+            <strRef>
+              <f>'Динамика'!$A$15:$A$20</f>
+            </strRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'Динамика'!$D$15:$D$20</f>
+            </numRef>
+          </val>
+          <smooth val="0"/>
+        </ser>
+        <dLbls>
+          <showLegendKey val="0"/>
+          <showVal val="0"/>
+          <showCatName val="0"/>
+          <showSerName val="0"/>
+          <showPercent val="0"/>
+          <showBubbleSize val="0"/>
+          <showLeaderLines val="0"/>
+        </dLbls>
+        <axId val="100000000"/>
+        <axId val="100000001"/>
+      </lineChart>
+      <catAx>
+        <axId val="100000000"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <delete val="0"/>
+        <axPos val="b"/>
+        <numFmt formatCode="General" sourceLinked="false"/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <tickLblPos val="nextTo"/>
+        <spPr>
+          <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </spPr>
+        <txPr>
+          <a:bodyPr anchor="ctr" anchorCtr="true" rot="-60000000" spcFirstLastPara="true" vert="horz" vertOverflow="ellipsis" wrap="square"/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="false" baseline="0" i="false" kern="1200" spc="0" strike="noStrike" sz="900" u="none">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="15000"/>
+                    <a:lumOff val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </txPr>
+        <crossAx val="100000001"/>
+        <crosses val="autoZero"/>
+        <auto val="1"/>
+        <lblAlgn val="ctr"/>
+        <lblOffset val="100"/>
+        <noMultiLvlLbl val="0"/>
+      </catAx>
+      <valAx>
+        <axId val="100000001"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <delete val="0"/>
+        <axPos val="l"/>
+        <numFmt formatCode="General" sourceLinked="false"/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <tickLblPos val="nextTo"/>
+        <spPr>
+          <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </spPr>
+        <txPr>
+          <a:bodyPr anchor="ctr" anchorCtr="true" rot="-60000000" spcFirstLastPara="true" vert="horz" vertOverflow="ellipsis" wrap="square"/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="false" baseline="0" i="false" kern="1200" spc="0" strike="noStrike" sz="900" u="none">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="15000"/>
+                    <a:lumOff val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </txPr>
+        <crossAx val="100000000"/>
+        <crosses val="autoZero"/>
+        <crossBetween val="between"/>
+      </valAx>
+    </plotArea>
+    <legend>
+      <legendPos val="b"/>
+      <overlay val="0"/>
+    </legend>
+    <plotVisOnly val="0"/>
+    <dispBlanksAs val="gap"/>
+    <showDLblsOverMax val="0"/>
+  </chart>
+  <spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </a:ln>
+  </spPr>
+  <printSettings>
+    <pageMargins b="0.75" footer="0.3" header="0.3" l="0.7" r="0.7" t="0.7"/>
+  </printSettings>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <date1904 val="0"/>
+  <lang val="en-US"/>
+  <roundedCorners val="0"/>
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr anchorCtr="false" rot="0" spcFirstLastPara="false"/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="false" baseline="0" i="false" kern="0" spc="0"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="false" baseline="0" i="false" kern="0" spc="0" sz="1400">
+                <a:solidFill>
+                  <a:srgbClr val="595959"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Комментариев в среднем за 5 месяцев</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" altLang="en-US"/>
+          </a:p>
+        </rich>
+      </tx>
+      <overlay val="0"/>
+      <spPr/>
+      <txPr>
+        <a:bodyPr anchorCtr="false" rot="0" spcFirstLastPara="false"/>
+        <a:p/>
+      </txPr>
+    </title>
+    <view3D>
+      <rotX val="0"/>
+      <rotY val="0"/>
+      <rAngAx val="0"/>
+      <perspective val="0"/>
+    </view3D>
+    <floor>
+      <thickness val="0"/>
+    </floor>
+    <sideWall>
+      <thickness val="0"/>
+    </sideWall>
+    <backWall>
+      <thickness val="0"/>
+    </backWall>
+    <plotArea>
+      <lineChart>
+        <grouping val="standard"/>
+        <varyColors val="0"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f/>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln cap="rnd" w="25400">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:ln>
+          </spPr>
+          <dLbls>
+            <showLegendKey val="0"/>
+            <showVal val="0"/>
+            <showCatName val="0"/>
+            <showSerName val="0"/>
+            <showPercent val="0"/>
+            <showBubbleSize val="0"/>
+            <showLeaderLines val="0"/>
+          </dLbls>
+          <marker>
+            <size val="5"/>
+            <spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9252">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+            </spPr>
+          </marker>
+          <invertIfNegative val="0"/>
+          <cat>
+            <strRef>
+              <f>'Динамика'!$A$15:$A$20</f>
+            </strRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'Динамика'!$E$15:$E$20</f>
+            </numRef>
+          </val>
+          <smooth val="0"/>
+        </ser>
+        <dLbls>
+          <showLegendKey val="0"/>
+          <showVal val="0"/>
+          <showCatName val="0"/>
+          <showSerName val="0"/>
+          <showPercent val="0"/>
+          <showBubbleSize val="0"/>
+          <showLeaderLines val="0"/>
+        </dLbls>
+        <axId val="100000000"/>
+        <axId val="100000001"/>
+      </lineChart>
+      <catAx>
+        <axId val="100000000"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <delete val="0"/>
+        <axPos val="b"/>
+        <numFmt formatCode="General" sourceLinked="false"/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <tickLblPos val="nextTo"/>
+        <spPr>
+          <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </spPr>
+        <txPr>
+          <a:bodyPr anchor="ctr" anchorCtr="true" rot="-60000000" spcFirstLastPara="true" vert="horz" vertOverflow="ellipsis" wrap="square"/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="false" baseline="0" i="false" kern="1200" spc="0" strike="noStrike" sz="900" u="none">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="15000"/>
+                    <a:lumOff val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </txPr>
+        <crossAx val="100000001"/>
+        <crosses val="autoZero"/>
+        <auto val="1"/>
+        <lblAlgn val="ctr"/>
+        <lblOffset val="100"/>
+        <noMultiLvlLbl val="0"/>
+      </catAx>
+      <valAx>
+        <axId val="100000001"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <delete val="0"/>
+        <axPos val="l"/>
+        <numFmt formatCode="General" sourceLinked="false"/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <tickLblPos val="nextTo"/>
+        <spPr>
+          <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </spPr>
+        <txPr>
+          <a:bodyPr anchor="ctr" anchorCtr="true" rot="-60000000" spcFirstLastPara="true" vert="horz" vertOverflow="ellipsis" wrap="square"/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="false" baseline="0" i="false" kern="1200" spc="0" strike="noStrike" sz="900" u="none">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="15000"/>
+                    <a:lumOff val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </txPr>
+        <crossAx val="100000000"/>
+        <crosses val="autoZero"/>
+        <crossBetween val="between"/>
+      </valAx>
+    </plotArea>
+    <legend>
+      <legendPos val="b"/>
+      <overlay val="0"/>
+    </legend>
+    <plotVisOnly val="0"/>
+    <dispBlanksAs val="gap"/>
+    <showDLblsOverMax val="0"/>
+  </chart>
+  <spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </a:ln>
+  </spPr>
+  <printSettings>
+    <pageMargins b="0.75" footer="0.3" header="0.3" l="0.7" r="0.7" t="0.7"/>
+  </printSettings>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <date1904 val="0"/>
+  <lang val="en-US"/>
+  <roundedCorners val="0"/>
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr anchorCtr="false" rot="0" spcFirstLastPara="false"/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="false" baseline="0" i="false" kern="0" spc="0"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="false" baseline="0" i="false" kern="0" spc="0" sz="1400">
+                <a:solidFill>
+                  <a:srgbClr val="595959"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Просмотров в среднем за 5 месяцев</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" altLang="en-US"/>
+          </a:p>
+        </rich>
+      </tx>
+      <overlay val="0"/>
+      <spPr/>
+      <txPr>
+        <a:bodyPr anchorCtr="false" rot="0" spcFirstLastPara="false"/>
+        <a:p/>
+      </txPr>
+    </title>
+    <view3D>
+      <rotX val="0"/>
+      <rotY val="0"/>
+      <rAngAx val="0"/>
+      <perspective val="0"/>
+    </view3D>
+    <floor>
+      <thickness val="0"/>
+    </floor>
+    <sideWall>
+      <thickness val="0"/>
+    </sideWall>
+    <backWall>
+      <thickness val="0"/>
+    </backWall>
+    <plotArea>
+      <lineChart>
+        <grouping val="standard"/>
+        <varyColors val="0"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f/>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln cap="rnd" w="25400">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:ln>
+          </spPr>
+          <dLbls>
+            <showLegendKey val="0"/>
+            <showVal val="0"/>
+            <showCatName val="0"/>
+            <showSerName val="0"/>
+            <showPercent val="0"/>
+            <showBubbleSize val="0"/>
+            <showLeaderLines val="0"/>
+          </dLbls>
+          <marker>
+            <size val="5"/>
+            <spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9252">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+            </spPr>
+          </marker>
+          <invertIfNegative val="0"/>
+          <cat>
+            <strRef>
+              <f>'Динамика'!$A$15:$A$20</f>
+            </strRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'Динамика'!$F$15:$F$20</f>
+            </numRef>
+          </val>
+          <smooth val="0"/>
+        </ser>
+        <dLbls>
+          <showLegendKey val="0"/>
+          <showVal val="0"/>
+          <showCatName val="0"/>
+          <showSerName val="0"/>
+          <showPercent val="0"/>
+          <showBubbleSize val="0"/>
+          <showLeaderLines val="0"/>
+        </dLbls>
+        <axId val="100000000"/>
+        <axId val="100000001"/>
+      </lineChart>
       <catAx>
         <axId val="100000000"/>
         <scaling>
@@ -479,13 +1431,13 @@
 <xdr:wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -502,6 +1454,126 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData fLocksWithSheet="false" fPrintsWithSheet="true"/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 3" descr=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData fLocksWithSheet="false" fPrintsWithSheet="true"/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 4" descr=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData fLocksWithSheet="false" fPrintsWithSheet="true"/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 5" descr=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData fLocksWithSheet="false" fPrintsWithSheet="true"/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 6" descr=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -745,7 +1817,7 @@
       </items>
     </pivotField>
     <pivotField showAll="false"/>
-    <pivotField axis="axisRow" compact="false" outline="false" showAll="false" defaultSubtotal="true">
+    <pivotField name="Дата публикации" axis="axisRow" compact="false" outline="false" showAll="false" defaultSubtotal="true">
       <items count="1">
         <item t="default"/>
       </items>
@@ -807,14 +1879,14 @@
     <i/>
   </colItems>
   <pageFields count="1">
-    <pageField fld="0"/>
+    <pageField fld="0" name="Выбор организации"/>
   </pageFields>
   <dataFields count="5">
-    <dataField name="Постов в среднем" fld="9" subtotal="sum"/>
-    <dataField name="Лайков в среднем" fld="17" subtotal="sum"/>
-    <dataField name="Репостов в среднем" fld="33" subtotal="sum"/>
-    <dataField name="Комментариев в среднем" fld="25" subtotal="sum"/>
-    <dataField name="Просмотров в среднем" fld="41" subtotal="sum"/>
+    <dataField name="Постов в среднем за 5 месяцев" fld="9" subtotal="sum"/>
+    <dataField name="Лайков в среднем за 5 месяцев" fld="17" subtotal="sum"/>
+    <dataField name="Репостов в среднем за 5 месяцев" fld="33" subtotal="sum"/>
+    <dataField name="Комментариев в среднем за 5 месяцев" fld="25" subtotal="sum"/>
+    <dataField name="Просмотров в среднем за 5 месяцев" fld="41" subtotal="sum"/>
   </dataFields>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="true" showColHeaders="true" showLastColumn="true"/>
 </pivotTableDefinition>
@@ -1862,7 +2934,7 @@
         <v>46</v>
       </c>
       <c r="D16" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E16" s="1">
         <v>0</v>
@@ -1877,16 +2949,16 @@
         <v>0</v>
       </c>
       <c r="I16" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J16" s="1">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="K16" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L16" s="1">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="M16" s="1">
         <v>0</v>
@@ -1901,16 +2973,16 @@
         <v>0</v>
       </c>
       <c r="Q16" s="1">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="R16" s="1">
-        <v>1</v>
+        <v>7.25</v>
       </c>
       <c r="S16" s="1">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="T16" s="1">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="U16" s="1">
         <v>0</v>
@@ -1925,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="Y16" s="1">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="Z16" s="1">
-        <v>0</v>
+        <v>5.25</v>
       </c>
       <c r="AA16" s="1">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AB16" s="1">
         <v>1</v>
@@ -1958,7 +3030,7 @@
         <v>1</v>
       </c>
       <c r="AJ16" s="1">
-        <v>138</v>
+        <v>204</v>
       </c>
       <c r="AK16" s="1">
         <v>0</v>
@@ -1973,13 +3045,13 @@
         <v>0</v>
       </c>
       <c r="AO16" s="1">
-        <v>138</v>
+        <v>204</v>
       </c>
       <c r="AP16" s="1">
-        <v>34.5</v>
+        <v>51</v>
       </c>
       <c r="AQ16" s="1">
-        <v>138</v>
+        <v>204</v>
       </c>
     </row>
     <row r="17" ht="30" customHeight="true">
@@ -2020,37 +3092,37 @@
         <v>0</v>
       </c>
       <c r="M17" s="1">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="N17" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="O17" s="1">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="P17" s="1">
         <v>11</v>
       </c>
       <c r="Q17" s="1">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="R17" s="1">
         <v>0</v>
       </c>
       <c r="S17" s="1">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="T17" s="1">
         <v>0</v>
       </c>
       <c r="U17" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="V17" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="W17" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="X17" s="1">
         <v>4</v>
@@ -2062,7 +3134,7 @@
         <v>0</v>
       </c>
       <c r="AA17" s="1">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="AB17" s="1">
         <v>0</v>
@@ -2092,25 +3164,25 @@
         <v>0</v>
       </c>
       <c r="AK17" s="1">
-        <v>187</v>
+        <v>208</v>
       </c>
       <c r="AL17" s="1">
-        <v>84</v>
+        <v>101</v>
       </c>
       <c r="AM17" s="1">
-        <v>1126</v>
+        <v>1176</v>
       </c>
       <c r="AN17" s="1">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="AO17" s="1">
-        <v>938</v>
+        <v>970</v>
       </c>
       <c r="AP17" s="1">
         <v>0</v>
       </c>
       <c r="AQ17" s="1">
-        <v>1809</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="18" ht="30" customHeight="true">
@@ -2223,16 +3295,16 @@
         <v>0</v>
       </c>
       <c r="AK18" s="1">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="AL18" s="1">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="AM18" s="1">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="AN18" s="1">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="AO18" s="1">
         <v>0</v>
@@ -2241,7 +3313,7 @@
         <v>0</v>
       </c>
       <c r="AQ18" s="1">
-        <v>941</v>
+        <v>948</v>
       </c>
     </row>
     <row r="19" ht="30" customHeight="true">
@@ -2354,25 +3426,25 @@
         <v>0</v>
       </c>
       <c r="AK19" s="1">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="AL19" s="1">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AM19" s="1">
-        <v>1190</v>
+        <v>1193</v>
       </c>
       <c r="AN19" s="1">
         <v>256</v>
       </c>
       <c r="AO19" s="1">
-        <v>979</v>
+        <v>981</v>
       </c>
       <c r="AP19" s="1">
         <v>0</v>
       </c>
       <c r="AQ19" s="1">
-        <v>2001</v>
+        <v>2006</v>
       </c>
     </row>
     <row r="20" ht="30" customHeight="true">
@@ -2541,7 +3613,7 @@
         <v>3</v>
       </c>
       <c r="L21" s="1">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="M21" s="1">
         <v>0</v>
@@ -2556,16 +3628,16 @@
         <v>0</v>
       </c>
       <c r="Q21" s="1">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="R21" s="1">
-        <v>20.5</v>
+        <v>22.25</v>
       </c>
       <c r="S21" s="1">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="T21" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="U21" s="1">
         <v>0</v>
@@ -2580,13 +3652,13 @@
         <v>0</v>
       </c>
       <c r="Y21" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Z21" s="1">
-        <v>1.25</v>
+        <v>1.5</v>
       </c>
       <c r="AA21" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AB21" s="1">
         <v>0</v>
@@ -2613,7 +3685,7 @@
         <v>0</v>
       </c>
       <c r="AJ21" s="1">
-        <v>956</v>
+        <v>1082</v>
       </c>
       <c r="AK21" s="1">
         <v>0</v>
@@ -2628,13 +3700,13 @@
         <v>0</v>
       </c>
       <c r="AO21" s="1">
-        <v>956</v>
+        <v>1082</v>
       </c>
       <c r="AP21" s="1">
-        <v>239</v>
+        <v>270.5</v>
       </c>
       <c r="AQ21" s="1">
-        <v>956</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="22" ht="30" customHeight="true">
@@ -2747,25 +3819,25 @@
         <v>0</v>
       </c>
       <c r="AK22" s="1">
-        <v>287</v>
+        <v>310</v>
       </c>
       <c r="AL22" s="1">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="AM22" s="1">
-        <v>233</v>
+        <v>255</v>
       </c>
       <c r="AN22" s="1">
-        <v>185</v>
+        <v>195</v>
       </c>
       <c r="AO22" s="1">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="AP22" s="1">
         <v>0</v>
       </c>
       <c r="AQ22" s="1">
-        <v>828</v>
+        <v>895</v>
       </c>
     </row>
     <row r="23" ht="30" customHeight="true">
@@ -2878,25 +3950,25 @@
         <v>0</v>
       </c>
       <c r="AK23" s="1">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="AL23" s="1">
-        <v>468</v>
+        <v>473</v>
       </c>
       <c r="AM23" s="1">
-        <v>605</v>
+        <v>621</v>
       </c>
       <c r="AN23" s="1">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="AO23" s="1">
-        <v>489</v>
+        <v>501</v>
       </c>
       <c r="AP23" s="1">
         <v>0</v>
       </c>
       <c r="AQ23" s="1">
-        <v>1341</v>
+        <v>1372</v>
       </c>
     </row>
     <row r="24" ht="30" customHeight="true">
@@ -3009,25 +4081,25 @@
         <v>0</v>
       </c>
       <c r="AK24" s="1">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AL24" s="1">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="AM24" s="1">
-        <v>519</v>
+        <v>522</v>
       </c>
       <c r="AN24" s="1">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AO24" s="1">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="AP24" s="1">
         <v>0</v>
       </c>
       <c r="AQ24" s="1">
-        <v>1054</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="25" ht="30" customHeight="true">
@@ -3140,25 +4212,25 @@
         <v>0</v>
       </c>
       <c r="AK25" s="1">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AL25" s="1">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="AM25" s="1">
-        <v>840</v>
+        <v>844</v>
       </c>
       <c r="AN25" s="1">
         <v>566</v>
       </c>
       <c r="AO25" s="1">
-        <v>619</v>
+        <v>622</v>
       </c>
       <c r="AP25" s="1">
         <v>0</v>
       </c>
       <c r="AQ25" s="1">
-        <v>2272</v>
+        <v>2278</v>
       </c>
     </row>
     <row r="26" ht="30" customHeight="true">
@@ -3196,7 +4268,7 @@
         <v>3</v>
       </c>
       <c r="L26" s="1">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="M26" s="1">
         <v>0</v>
@@ -3211,13 +4283,13 @@
         <v>0</v>
       </c>
       <c r="Q26" s="1">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="R26" s="1">
-        <v>1.75</v>
+        <v>2.5</v>
       </c>
       <c r="S26" s="1">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="T26" s="1">
         <v>1</v>
@@ -3268,7 +4340,7 @@
         <v>1</v>
       </c>
       <c r="AJ26" s="1">
-        <v>110</v>
+        <v>139</v>
       </c>
       <c r="AK26" s="1">
         <v>0</v>
@@ -3283,13 +4355,13 @@
         <v>0</v>
       </c>
       <c r="AO26" s="1">
-        <v>110</v>
+        <v>139</v>
       </c>
       <c r="AP26" s="1">
-        <v>27.5</v>
+        <v>34.75</v>
       </c>
       <c r="AQ26" s="1">
-        <v>110</v>
+        <v>139</v>
       </c>
     </row>
     <row r="27" ht="30" customHeight="true">
@@ -3405,22 +4477,22 @@
         <v>54</v>
       </c>
       <c r="AL27" s="1">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AM27" s="1">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AN27" s="1">
         <v>20</v>
       </c>
       <c r="AO27" s="1">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AP27" s="1">
         <v>0</v>
       </c>
       <c r="AQ27" s="1">
-        <v>231</v>
+        <v>234</v>
       </c>
     </row>
     <row r="28" ht="30" customHeight="true">
@@ -4543,7 +5615,7 @@
         <v>45</v>
       </c>
       <c r="D16" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E16" s="1">
         <v>0</v>
@@ -4558,13 +5630,13 @@
         <v>0</v>
       </c>
       <c r="I16" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J16" s="1">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="K16" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
@@ -6264,7 +7336,7 @@
         <v>45</v>
       </c>
       <c r="D16" s="1">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="E16" s="1">
         <v>0</v>
@@ -6279,13 +7351,13 @@
         <v>0</v>
       </c>
       <c r="I16" s="1">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="J16" s="1">
-        <v>1</v>
+        <v>7.25</v>
       </c>
       <c r="K16" s="1">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
@@ -6334,25 +7406,25 @@
         <v>0</v>
       </c>
       <c r="E17" s="1">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F17" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="G17" s="1">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="H17" s="1">
         <v>11</v>
       </c>
       <c r="I17" s="1">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="J17" s="1">
         <v>0</v>
       </c>
       <c r="K17" s="1">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
@@ -6599,7 +7671,7 @@
         <v>45</v>
       </c>
       <c r="D21" s="1">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="E21" s="1">
         <v>0</v>
@@ -6614,13 +7686,13 @@
         <v>0</v>
       </c>
       <c r="I21" s="1">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="J21" s="1">
-        <v>20.5</v>
+        <v>22.25</v>
       </c>
       <c r="K21" s="1">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
@@ -6934,7 +8006,7 @@
         <v>45</v>
       </c>
       <c r="D26" s="1">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E26" s="1">
         <v>0</v>
@@ -6949,13 +8021,13 @@
         <v>0</v>
       </c>
       <c r="I26" s="1">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="J26" s="1">
-        <v>1.75</v>
+        <v>2.5</v>
       </c>
       <c r="K26" s="1">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="L26" s="1"/>
       <c r="M26" s="1"/>
@@ -9706,7 +10778,7 @@
         <v>45</v>
       </c>
       <c r="D16" s="1">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="E16" s="1">
         <v>0</v>
@@ -9721,13 +10793,13 @@
         <v>0</v>
       </c>
       <c r="I16" s="1">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="J16" s="1">
-        <v>0</v>
+        <v>5.25</v>
       </c>
       <c r="K16" s="1">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
@@ -9776,13 +10848,13 @@
         <v>0</v>
       </c>
       <c r="E17" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F17" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G17" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H17" s="1">
         <v>4</v>
@@ -9794,7 +10866,7 @@
         <v>0</v>
       </c>
       <c r="K17" s="1">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
@@ -10041,7 +11113,7 @@
         <v>45</v>
       </c>
       <c r="D21" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E21" s="1">
         <v>0</v>
@@ -10056,13 +11128,13 @@
         <v>0</v>
       </c>
       <c r="I21" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J21" s="1">
-        <v>1.25</v>
+        <v>1.5</v>
       </c>
       <c r="K21" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
@@ -11427,7 +12499,7 @@
         <v>45</v>
       </c>
       <c r="D16" s="1">
-        <v>138</v>
+        <v>204</v>
       </c>
       <c r="E16" s="1">
         <v>0</v>
@@ -11442,13 +12514,13 @@
         <v>0</v>
       </c>
       <c r="I16" s="1">
-        <v>138</v>
+        <v>204</v>
       </c>
       <c r="J16" s="1">
-        <v>34.5</v>
+        <v>51</v>
       </c>
       <c r="K16" s="1">
-        <v>138</v>
+        <v>204</v>
       </c>
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
@@ -11497,25 +12569,25 @@
         <v>0</v>
       </c>
       <c r="E17" s="1">
-        <v>187</v>
+        <v>208</v>
       </c>
       <c r="F17" s="1">
-        <v>84</v>
+        <v>101</v>
       </c>
       <c r="G17" s="1">
-        <v>1126</v>
+        <v>1176</v>
       </c>
       <c r="H17" s="1">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="I17" s="1">
-        <v>938</v>
+        <v>970</v>
       </c>
       <c r="J17" s="1">
         <v>0</v>
       </c>
       <c r="K17" s="1">
-        <v>1809</v>
+        <v>1899</v>
       </c>
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
@@ -11564,16 +12636,16 @@
         <v>0</v>
       </c>
       <c r="E18" s="1">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="F18" s="1">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="G18" s="1">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="H18" s="1">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="I18" s="1">
         <v>0</v>
@@ -11582,7 +12654,7 @@
         <v>0</v>
       </c>
       <c r="K18" s="1">
-        <v>941</v>
+        <v>948</v>
       </c>
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
@@ -11631,25 +12703,25 @@
         <v>0</v>
       </c>
       <c r="E19" s="1">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="F19" s="1">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="G19" s="1">
-        <v>1190</v>
+        <v>1193</v>
       </c>
       <c r="H19" s="1">
         <v>256</v>
       </c>
       <c r="I19" s="1">
-        <v>979</v>
+        <v>981</v>
       </c>
       <c r="J19" s="1">
         <v>0</v>
       </c>
       <c r="K19" s="1">
-        <v>2001</v>
+        <v>2006</v>
       </c>
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
@@ -11762,7 +12834,7 @@
         <v>45</v>
       </c>
       <c r="D21" s="1">
-        <v>956</v>
+        <v>1082</v>
       </c>
       <c r="E21" s="1">
         <v>0</v>
@@ -11777,13 +12849,13 @@
         <v>0</v>
       </c>
       <c r="I21" s="1">
-        <v>956</v>
+        <v>1082</v>
       </c>
       <c r="J21" s="1">
-        <v>239</v>
+        <v>270.5</v>
       </c>
       <c r="K21" s="1">
-        <v>956</v>
+        <v>1082</v>
       </c>
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
@@ -11832,25 +12904,25 @@
         <v>0</v>
       </c>
       <c r="E22" s="1">
-        <v>287</v>
+        <v>310</v>
       </c>
       <c r="F22" s="1">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="G22" s="1">
-        <v>233</v>
+        <v>255</v>
       </c>
       <c r="H22" s="1">
-        <v>185</v>
+        <v>195</v>
       </c>
       <c r="I22" s="1">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="J22" s="1">
         <v>0</v>
       </c>
       <c r="K22" s="1">
-        <v>828</v>
+        <v>895</v>
       </c>
       <c r="L22" s="1"/>
       <c r="M22" s="1"/>
@@ -11899,25 +12971,25 @@
         <v>0</v>
       </c>
       <c r="E23" s="1">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="F23" s="1">
-        <v>468</v>
+        <v>473</v>
       </c>
       <c r="G23" s="1">
-        <v>605</v>
+        <v>621</v>
       </c>
       <c r="H23" s="1">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="I23" s="1">
-        <v>489</v>
+        <v>501</v>
       </c>
       <c r="J23" s="1">
         <v>0</v>
       </c>
       <c r="K23" s="1">
-        <v>1341</v>
+        <v>1372</v>
       </c>
       <c r="L23" s="1"/>
       <c r="M23" s="1"/>
@@ -11966,25 +13038,25 @@
         <v>0</v>
       </c>
       <c r="E24" s="1">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F24" s="1">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="G24" s="1">
-        <v>519</v>
+        <v>522</v>
       </c>
       <c r="H24" s="1">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="I24" s="1">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="J24" s="1">
         <v>0</v>
       </c>
       <c r="K24" s="1">
-        <v>1054</v>
+        <v>1060</v>
       </c>
       <c r="L24" s="1"/>
       <c r="M24" s="1"/>
@@ -12033,25 +13105,25 @@
         <v>0</v>
       </c>
       <c r="E25" s="1">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="F25" s="1">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="G25" s="1">
-        <v>840</v>
+        <v>844</v>
       </c>
       <c r="H25" s="1">
         <v>566</v>
       </c>
       <c r="I25" s="1">
-        <v>619</v>
+        <v>622</v>
       </c>
       <c r="J25" s="1">
         <v>0</v>
       </c>
       <c r="K25" s="1">
-        <v>2272</v>
+        <v>2278</v>
       </c>
       <c r="L25" s="1"/>
       <c r="M25" s="1"/>
@@ -12097,7 +13169,7 @@
         <v>45</v>
       </c>
       <c r="D26" s="1">
-        <v>110</v>
+        <v>139</v>
       </c>
       <c r="E26" s="1">
         <v>0</v>
@@ -12112,13 +13184,13 @@
         <v>0</v>
       </c>
       <c r="I26" s="1">
-        <v>110</v>
+        <v>139</v>
       </c>
       <c r="J26" s="1">
-        <v>27.5</v>
+        <v>34.75</v>
       </c>
       <c r="K26" s="1">
-        <v>110</v>
+        <v>139</v>
       </c>
       <c r="L26" s="1"/>
       <c r="M26" s="1"/>
@@ -12170,22 +13242,22 @@
         <v>54</v>
       </c>
       <c r="F27" s="1">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G27" s="1">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H27" s="1">
         <v>20</v>
       </c>
       <c r="I27" s="1">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="J27" s="1">
         <v>0</v>
       </c>
       <c r="K27" s="1">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="L27" s="1"/>
       <c r="M27" s="1"/>
